--- a/biology/Botanique/Gaylussacia/Gaylussacia.xlsx
+++ b/biology/Botanique/Gaylussacia/Gaylussacia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaylussacia est un genre de plante à fleurs de la famille des Ericaceae comprenant une cinquantaine d'espèces  originaires du continent américain, où on les trouve en Amérique du Nord (huit espèces) et en Amérique du Sud dans les Andes (sept espèces) et les montagnes du sud-est du Brésil (les trente-cinq espèces restantes).  
 Ce sont des arbustes à feuillage caduc ou persistant qui mesurent de 0,4 m à 1,8 m. 
@@ -514,7 +526,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Gaylussacia baccata (Wangenh.) K. Koch
@@ -525,8 +539,7 @@
 Gaylussacia mosieri Small
 Gaylussacia nana (Gray) Small
 Gaylussacia tomentosa (Gray) Pursh ex Small
-Gaylussacia ursina (M.A. Curtis) Torr. &amp; Gray ex Gray
-Espèces</t>
+Gaylussacia ursina (M.A. Curtis) Torr. &amp; Gray ex Gray</t>
         </is>
       </c>
     </row>
